--- a/bdexcel.xlsx
+++ b/bdexcel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2052" windowWidth="17280" windowHeight="8880"/>
+    <workbookView xWindow="5364" yWindow="1536" windowWidth="17280" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Clave cliente</t>
   </si>
@@ -62,10 +62,22 @@
     <t>Edier</t>
   </si>
   <si>
-    <t>223228@ids.upchiapas.edu.mx</t>
-  </si>
-  <si>
     <t>1232432421</t>
+  </si>
+  <si>
+    <t>edier@gmail.com</t>
+  </si>
+  <si>
+    <t>luis244</t>
+  </si>
+  <si>
+    <t>2l334</t>
+  </si>
+  <si>
+    <t>1045</t>
+  </si>
+  <si>
+    <t>9611022755</t>
   </si>
 </sst>
 </file>
@@ -485,9 +497,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8738373D-6761-4D08-A572-B6227B5735CD}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
@@ -497,7 +511,7 @@
     <col customWidth="true" max="4" min="4" width="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.4">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,8 +526,8 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1045</v>
+      <c r="A2" t="s">
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -522,26 +536,42 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="D4">
+        <v>12453</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
